--- a/data/M1-MS-DIS.xlsx
+++ b/data/M1-MS-DIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFEC90-FAFA-C94A-9D4B-60AEB4EF56C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5EAC7-68BF-BD48-B172-789371B8C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-MS-DIS" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>12</v>

--- a/data/M1-MS-DIS.xlsx
+++ b/data/M1-MS-DIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5EAC7-68BF-BD48-B172-789371B8C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78C996-BA98-EB43-8E7A-A192F06887DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>AMT2111</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -204,18 +207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -247,8 +244,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,21 +580,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,19 +612,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -643,19 +644,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>22</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,19 +676,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>18</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,19 +708,22 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,19 +740,22 @@
         <v>10</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -759,19 +772,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -788,19 +804,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>18</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -817,19 +836,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>16</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -846,19 +868,22 @@
         <v>14</v>
       </c>
       <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -875,19 +900,22 @@
         <v>14</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -904,19 +932,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>18</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -933,19 +964,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>16</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -962,19 +996,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>17</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -991,19 +1028,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1020,19 +1060,22 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
         <v>16</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1049,19 +1092,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
       <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>10</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1078,135 +1124,150 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>231</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>14</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>232</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>241</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>242</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1223,19 +1284,22 @@
         <v>2</v>
       </c>
       <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>12</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1252,22 +1316,24 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>16</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
-    <sortCondition ref="B2:B45"/>
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+    <sortCondition ref="B2:B24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
